--- a/附件1-白酒样本品评打分.xlsx
+++ b/附件1-白酒样本品评打分.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="20752" windowHeight="10455"/>
   </bookViews>
   <sheets>
     <sheet name="A组白酒品尝评分" sheetId="1" r:id="rId1"/>
@@ -1281,8 +1281,8 @@
   <sheetPr/>
   <dimension ref="A1:T210"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="K125" sqref="K125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1316,7 +1316,7 @@
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
     </row>
-    <row r="2" ht="14.25" spans="1:20">
+    <row r="2" ht="13.85" spans="1:20">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
@@ -6304,7 +6304,7 @@
   <sheetPr/>
   <dimension ref="A1:T211"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
@@ -6340,7 +6340,7 @@
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
     </row>
-    <row r="2" ht="14.25" spans="1:20">
+    <row r="2" ht="13.85" spans="1:20">
       <c r="A2" s="4" t="s">
         <v>39</v>
       </c>
